--- a/data/examples/Network_Config_Unified.xlsx
+++ b/data/examples/Network_Config_Unified.xlsx
@@ -510,9 +510,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v/>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
@@ -540,9 +537,6 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v/>
-      </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
@@ -581,9 +575,6 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v/>
-      </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
@@ -622,9 +613,6 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
@@ -663,9 +651,6 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
@@ -673,9 +658,6 @@
         <is>
           <t>ambient</t>
         </is>
-      </c>
-      <c r="G6" t="n">
-        <v/>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -704,9 +686,6 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
@@ -714,9 +693,6 @@
         <is>
           <t>ambient</t>
         </is>
-      </c>
-      <c r="G7" t="n">
-        <v/>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -745,9 +721,6 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
@@ -755,9 +728,6 @@
         <is>
           <t>ambient</t>
         </is>
-      </c>
-      <c r="G8" t="n">
-        <v/>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -786,9 +756,6 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
@@ -796,9 +763,6 @@
         <is>
           <t>ambient</t>
         </is>
-      </c>
-      <c r="G9" t="n">
-        <v/>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -827,9 +791,6 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
@@ -837,9 +798,6 @@
         <is>
           <t>ambient</t>
         </is>
-      </c>
-      <c r="G10" t="n">
-        <v/>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -868,19 +826,13 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v/>
+          <t>ambient</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -2195,9 +2147,6 @@
       <c r="D2" t="n">
         <v>37.5</v>
       </c>
-      <c r="E2" t="n">
-        <v/>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -2218,9 +2167,6 @@
       <c r="D3" t="n">
         <v>37.5</v>
       </c>
-      <c r="E3" t="n">
-        <v/>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -2241,9 +2187,6 @@
       <c r="D4" t="n">
         <v>37.5</v>
       </c>
-      <c r="E4" t="n">
-        <v/>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -2310,9 +2253,6 @@
       <c r="D7" t="n">
         <v>37.5</v>
       </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -2333,9 +2273,6 @@
       <c r="D8" t="n">
         <v>37.5</v>
       </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -2356,9 +2293,6 @@
       <c r="D9" t="n">
         <v>37.5</v>
       </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -2379,9 +2313,6 @@
       <c r="D10" t="n">
         <v>37.5</v>
       </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -2402,9 +2333,6 @@
       <c r="D11" t="n">
         <v>37.5</v>
       </c>
-      <c r="E11" t="n">
-        <v/>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -2471,9 +2399,6 @@
       <c r="D14" t="n">
         <v>37.5</v>
       </c>
-      <c r="E14" t="n">
-        <v/>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -2494,9 +2419,6 @@
       <c r="D15" t="n">
         <v>37.5</v>
       </c>
-      <c r="E15" t="n">
-        <v/>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -2517,9 +2439,6 @@
       <c r="D16" t="n">
         <v>37.5</v>
       </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
@@ -2540,9 +2459,6 @@
       <c r="D17" t="n">
         <v>37.5</v>
       </c>
-      <c r="E17" t="n">
-        <v/>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -2563,9 +2479,6 @@
       <c r="D18" t="n">
         <v>37.5</v>
       </c>
-      <c r="E18" t="n">
-        <v/>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
@@ -2632,9 +2545,6 @@
       <c r="D21" t="n">
         <v>37.5</v>
       </c>
-      <c r="E21" t="n">
-        <v/>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -2655,9 +2565,6 @@
       <c r="D22" t="n">
         <v>37.5</v>
       </c>
-      <c r="E22" t="n">
-        <v/>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
@@ -2678,9 +2585,6 @@
       <c r="D23" t="n">
         <v>37.5</v>
       </c>
-      <c r="E23" t="n">
-        <v/>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2701,9 +2605,6 @@
       <c r="D24" t="n">
         <v>37.5</v>
       </c>
-      <c r="E24" t="n">
-        <v/>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
@@ -2724,9 +2625,6 @@
       <c r="D25" t="n">
         <v>37.5</v>
       </c>
-      <c r="E25" t="n">
-        <v/>
-      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
@@ -2793,9 +2691,6 @@
       <c r="D28" t="n">
         <v>37.5</v>
       </c>
-      <c r="E28" t="n">
-        <v/>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
@@ -2816,9 +2711,6 @@
       <c r="D29" t="n">
         <v>37.5</v>
       </c>
-      <c r="E29" t="n">
-        <v/>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2839,9 +2731,6 @@
       <c r="D30" t="n">
         <v>37.5</v>
       </c>
-      <c r="E30" t="n">
-        <v/>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
@@ -2861,9 +2750,6 @@
       </c>
       <c r="D31" t="n">
         <v>37.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v/>
       </c>
       <c r="F31" t="n">
         <v>0</v>

--- a/data/examples/Network_Config_Unified.xlsx
+++ b/data/examples/Network_Config_Unified.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Nodes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Routes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="TruckSchedules" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CostParameters" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="LaborCalendar" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Nodes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Routes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TruckSchedules" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CostParameters" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="LaborCalendar" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +32,23 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,9 +63,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,6 +434,237 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>shelf_life_ambient_days</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>shelf_life_frozen_days</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>shelf_life_after_thaw_days</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>min_acceptable_shelf_life_days</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>units_per_mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G142</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Product G142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>G142</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G144</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Product G144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>G144</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>120</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G147</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Product G147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>G147</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G153</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Product G153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>G153</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G610</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Product G610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>G610</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -852,7 +1097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1155,7 +1400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1972,7 +2217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2083,7 +2328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/data/examples/Network_Config_Unified.xlsx
+++ b/data/examples/Network_Config_Unified.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,17 +497,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G142</t>
+          <t>G144</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Product G142</t>
+          <t>Product G144</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G142</t>
+          <t>G144</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -523,23 +523,23 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G144</t>
+          <t>G610</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Product G144</t>
+          <t>Product G610</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>G144</t>
+          <t>G610</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -555,102 +555,6 @@
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>G147</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Product G147</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>G147</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>120</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>G153</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Product G153</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>G153</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" t="n">
-        <v>120</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>G610</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Product G610</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>G610</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>17</v>
-      </c>
-      <c r="E6" t="n">
-        <v>120</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
         <v>395</v>
       </c>
     </row>
